--- a/10/3/Construcción 2003 a 2021 - Trimestral.xlsx
+++ b/10/3/Construcción 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Serie</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -617,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3143,6 +3146,41 @@
         <v>42.4</v>
       </c>
     </row>
+    <row r="73" spans="1:11">
+      <c r="A73" t="s">
+        <v>82</v>
+      </c>
+      <c r="B73">
+        <v>42.3</v>
+      </c>
+      <c r="C73">
+        <v>51</v>
+      </c>
+      <c r="D73">
+        <v>47.2</v>
+      </c>
+      <c r="E73">
+        <v>73.7</v>
+      </c>
+      <c r="F73">
+        <v>88</v>
+      </c>
+      <c r="G73">
+        <v>64</v>
+      </c>
+      <c r="H73">
+        <v>58.6</v>
+      </c>
+      <c r="I73">
+        <v>46.9</v>
+      </c>
+      <c r="J73">
+        <v>48.7</v>
+      </c>
+      <c r="K73">
+        <v>50.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
